--- a/src/predicciones/xgboost/producto_251.xlsx
+++ b/src/predicciones/xgboost/producto_251.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>valor_real</t>
   </si>
   <si>
     <t>valor_prediccion</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,2073 +386,2847 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B258"/>
+  <dimension ref="A1:C258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>44929</v>
+      </c>
+      <c r="B2">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>5.753532409667969</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1</v>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>44931</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>7.072366237640381</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>44933</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>4.014419078826904</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>44934</v>
+      </c>
+      <c r="B5">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>5.126949310302734</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>44936</v>
+      </c>
+      <c r="B6">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>3.692811727523804</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>1</v>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>44938</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>2.278703451156616</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>44941</v>
+      </c>
+      <c r="B8">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>7.449138641357422</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>44943</v>
+      </c>
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>6.398844718933105</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>7.979753494262695</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>44945</v>
+      </c>
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>6.273864269256592</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>44946</v>
+      </c>
+      <c r="B12">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>8.010249137878418</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>44948</v>
+      </c>
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>4.386627674102783</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B14">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>7.327091693878174</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>1</v>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>44951</v>
       </c>
       <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>4.580635547637939</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>1</v>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>44954</v>
       </c>
       <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>8.519744873046875</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>44955</v>
+      </c>
+      <c r="B17">
         <v>9</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>9.057028770446777</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>44956</v>
+      </c>
+      <c r="B18">
         <v>3</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>1.073485016822815</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B19">
         <v>6</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>7.713051319122314</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>1</v>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>44959</v>
       </c>
       <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
         <v>2.089492797851562</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>1</v>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>44960</v>
       </c>
       <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
         <v>1.921115756034851</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>44961</v>
+      </c>
+      <c r="B22">
         <v>6</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>2.024678945541382</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>1</v>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>44964</v>
       </c>
       <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
         <v>2.275017261505127</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>1</v>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>44965</v>
       </c>
       <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
         <v>3.529210090637207</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>44967</v>
+      </c>
+      <c r="B25">
         <v>3</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>1.928637027740479</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>44968</v>
+      </c>
+      <c r="B26">
         <v>9</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>5.103338718414307</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>1</v>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>44970</v>
       </c>
       <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>6.834168434143066</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>1</v>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>44972</v>
       </c>
       <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>4.968621730804443</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B29">
         <v>9</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>6.60010290145874</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>44974</v>
+      </c>
+      <c r="B30">
         <v>11</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>4.00810432434082</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>1</v>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>44976</v>
       </c>
       <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
         <v>4.141321182250977</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>44977</v>
+      </c>
+      <c r="B32">
         <v>6</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>4.426568031311035</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>1</v>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>44978</v>
       </c>
       <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
         <v>1.463191390037537</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>44979</v>
+      </c>
+      <c r="B34">
         <v>8</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>5.196900844573975</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>2</v>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>44980</v>
       </c>
       <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
         <v>1.155718684196472</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>44982</v>
+      </c>
+      <c r="B36">
         <v>6</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>5.059799194335938</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>1</v>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>44983</v>
       </c>
       <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
         <v>1.77540647983551</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>1</v>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>44984</v>
       </c>
       <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
         <v>0.3418325483798981</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B39">
         <v>6</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>0.8006605505943298</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>1</v>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>44987</v>
       </c>
       <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
         <v>-0.0872245654463768</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>2</v>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>44988</v>
       </c>
       <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
         <v>2.063844203948975</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>44989</v>
+      </c>
+      <c r="B42">
         <v>7</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>4.241951465606689</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>44990</v>
+      </c>
+      <c r="B43">
         <v>5</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>2.511289834976196</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>1</v>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>44992</v>
       </c>
       <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
         <v>3.329217433929443</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>44994</v>
+      </c>
+      <c r="B45">
         <v>9</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>9.169024467468262</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>1</v>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>44995</v>
       </c>
       <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
         <v>2.481324911117554</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>2</v>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>44997</v>
       </c>
       <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
         <v>7.437918663024902</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>2</v>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>44999</v>
       </c>
       <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
         <v>8.520401000976562</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45000</v>
+      </c>
+      <c r="B49">
         <v>11</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>5.657619476318359</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>1</v>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>45002</v>
       </c>
       <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
         <v>2.549914598464966</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>45003</v>
+      </c>
+      <c r="B51">
         <v>6</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>3.480334758758545</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>1</v>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>45004</v>
       </c>
       <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
         <v>2.783307075500488</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>1</v>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>45005</v>
       </c>
       <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
         <v>0.5635022521018982</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>1</v>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45007</v>
       </c>
       <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
         <v>2.228902101516724</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>2</v>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45008</v>
       </c>
       <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
         <v>3.072348833084106</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45009</v>
+      </c>
+      <c r="B56">
         <v>6</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>3.337014436721802</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>1</v>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45010</v>
       </c>
       <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
         <v>0.7045513987541199</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>2</v>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45015</v>
       </c>
       <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
         <v>3.441403150558472</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B59">
         <v>8</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>3.265080213546753</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>1</v>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45025</v>
       </c>
       <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
         <v>3.463308334350586</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45026</v>
+      </c>
+      <c r="B61">
         <v>6</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>2.934195995330811</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>1</v>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45027</v>
       </c>
       <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
         <v>1.664500117301941</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>1</v>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>45029</v>
       </c>
       <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
         <v>4.788578510284424</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>1</v>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>45030</v>
       </c>
       <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
         <v>3.568124771118164</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45032</v>
+      </c>
+      <c r="B65">
         <v>3</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>4.221874237060547</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B66">
         <v>6</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>3.172903776168823</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
-        <v>1</v>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45034</v>
       </c>
       <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
         <v>1.72881007194519</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
-        <v>2</v>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>45035</v>
       </c>
       <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
         <v>3.096883058547974</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
-        <v>2</v>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45039</v>
       </c>
       <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
         <v>3.387882947921753</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45040</v>
+      </c>
+      <c r="B70">
         <v>7</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>4.032079696655273</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
-        <v>1</v>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45041</v>
       </c>
       <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
         <v>2.223117113113403</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
-        <v>1</v>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45042</v>
       </c>
       <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
         <v>2.397898197174072</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73">
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45045</v>
+      </c>
+      <c r="B73">
         <v>3</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>3.934044361114502</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74">
-        <v>2</v>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45048</v>
       </c>
       <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
         <v>1.788894414901733</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45049</v>
+      </c>
+      <c r="B75">
         <v>6</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>4.878897190093994</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
-        <v>1</v>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45051</v>
       </c>
       <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
         <v>2.088089942932129</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
-        <v>2</v>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45053</v>
       </c>
       <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
         <v>4.449132919311523</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
-        <v>2</v>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45054</v>
       </c>
       <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
         <v>4.323998928070068</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45056</v>
+      </c>
+      <c r="B79">
         <v>6</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>2.593780517578125</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
-        <v>1</v>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45057</v>
       </c>
       <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
         <v>1.749777793884277</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81">
-        <v>1</v>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45058</v>
       </c>
       <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
         <v>-0.2856951653957367</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82">
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45059</v>
+      </c>
+      <c r="B82">
         <v>6</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>-0.03756602481007576</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83">
-        <v>1</v>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45060</v>
       </c>
       <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
         <v>1.156959652900696</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84">
-        <v>1</v>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45062</v>
       </c>
       <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
         <v>3.083600759506226</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85">
-        <v>2</v>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45063</v>
       </c>
       <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
         <v>3.060825109481812</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86">
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B86">
         <v>8</v>
       </c>
-      <c r="B86">
+      <c r="C86">
         <v>4.709912300109863</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87">
-        <v>2</v>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45066</v>
       </c>
       <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
         <v>1.357051730155945</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88">
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B88">
         <v>5</v>
       </c>
-      <c r="B88">
+      <c r="C88">
         <v>3.142556190490723</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89">
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B89">
         <v>9</v>
       </c>
-      <c r="B89">
+      <c r="C89">
         <v>3.801514625549316</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90">
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B90">
         <v>11</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>4.50544548034668</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91">
-        <v>1</v>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45075</v>
       </c>
       <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
         <v>3.635525941848755</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92">
-        <v>1</v>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45076</v>
       </c>
       <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
         <v>7.547921180725098</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93">
-        <v>1</v>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45079</v>
       </c>
       <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
         <v>5.805910587310791</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94">
-        <v>1</v>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45081</v>
       </c>
       <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
         <v>3.267956256866455</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95">
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B95">
         <v>8</v>
       </c>
-      <c r="B95">
+      <c r="C95">
         <v>1.994517683982849</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96">
-        <v>2</v>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45083</v>
       </c>
       <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
         <v>2.142954587936401</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97">
-        <v>1</v>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45085</v>
       </c>
       <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
         <v>8.439391136169434</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98">
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B98">
         <v>7</v>
       </c>
-      <c r="B98">
+      <c r="C98">
         <v>4.602458953857422</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99">
-        <v>1</v>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45087</v>
       </c>
       <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
         <v>3.078493118286133</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100">
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B100">
         <v>7</v>
       </c>
-      <c r="B100">
+      <c r="C100">
         <v>7.707101345062256</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101">
-        <v>2</v>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45089</v>
       </c>
       <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
         <v>6.770362377166748</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102">
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B102">
         <v>6</v>
       </c>
-      <c r="B102">
+      <c r="C102">
         <v>5.07440710067749</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103">
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B103">
         <v>6</v>
       </c>
-      <c r="B103">
+      <c r="C103">
         <v>5.586663722991943</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104">
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B104">
         <v>11</v>
       </c>
-      <c r="B104">
+      <c r="C104">
         <v>2.019370317459106</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105">
-        <v>2</v>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45097</v>
       </c>
       <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
         <v>1.46108615398407</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106">
-        <v>1</v>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45100</v>
       </c>
       <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
         <v>4.964625835418701</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107">
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B107">
         <v>3</v>
       </c>
-      <c r="B107">
+      <c r="C107">
         <v>2.183440208435059</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108">
-        <v>1</v>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45104</v>
       </c>
       <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
         <v>5.924655437469482</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109">
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B109">
         <v>3</v>
       </c>
-      <c r="B109">
+      <c r="C109">
         <v>2.529527902603149</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110">
-        <v>1</v>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45108</v>
       </c>
       <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
         <v>5.679545402526855</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111">
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B111">
         <v>11</v>
       </c>
-      <c r="B111">
+      <c r="C111">
         <v>8.282586097717285</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112">
-        <v>1</v>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45111</v>
       </c>
       <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
         <v>1.915734171867371</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113">
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B113">
         <v>8</v>
       </c>
-      <c r="B113">
+      <c r="C113">
         <v>5.858586311340332</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114">
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B114">
         <v>7</v>
       </c>
-      <c r="B114">
+      <c r="C114">
         <v>3.244935035705566</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115">
-        <v>1</v>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45116</v>
       </c>
       <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
         <v>1.824967741966248</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116">
-        <v>1</v>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45118</v>
       </c>
       <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
         <v>0.2709840834140778</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117">
-        <v>1</v>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45121</v>
       </c>
       <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
         <v>3.013183832168579</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118">
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B118">
         <v>3</v>
       </c>
-      <c r="B118">
+      <c r="C118">
         <v>3.042335987091064</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119">
-        <v>1</v>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45125</v>
       </c>
       <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
         <v>5.264097690582275</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120">
-        <v>1</v>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>45126</v>
       </c>
       <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
         <v>1.668968081474304</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121">
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B121">
         <v>7</v>
       </c>
-      <c r="B121">
+      <c r="C121">
         <v>0.5724813342094421</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122">
-        <v>1</v>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>45129</v>
       </c>
       <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
         <v>0.9768308997154236</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123">
-        <v>2</v>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>45131</v>
       </c>
       <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
         <v>1.610602736473083</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124">
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B124">
         <v>3</v>
       </c>
-      <c r="B124">
+      <c r="C124">
         <v>4.215157032012939</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125">
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B125">
         <v>3</v>
       </c>
-      <c r="B125">
+      <c r="C125">
         <v>4.312193870544434</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126">
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B126">
         <v>6</v>
       </c>
-      <c r="B126">
+      <c r="C126">
         <v>7.003331661224365</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127">
-        <v>1</v>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>45136</v>
       </c>
       <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
         <v>1.008600831031799</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128">
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B128">
         <v>3</v>
       </c>
-      <c r="B128">
+      <c r="C128">
         <v>8.052989959716797</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129">
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B129">
         <v>7</v>
       </c>
-      <c r="B129">
+      <c r="C129">
         <v>5.156607627868652</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130">
-        <v>1</v>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>45142</v>
       </c>
       <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
         <v>2.207010746002197</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131">
-        <v>2</v>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>45145</v>
       </c>
       <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131">
         <v>2.894465208053589</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132">
-        <v>2</v>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>45146</v>
       </c>
       <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132">
         <v>7.718486785888672</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133">
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B133">
         <v>7</v>
       </c>
-      <c r="B133">
+      <c r="C133">
         <v>5.153913974761963</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134">
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B134">
         <v>6</v>
       </c>
-      <c r="B134">
+      <c r="C134">
         <v>2.655505418777466</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135">
-        <v>1</v>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>45149</v>
       </c>
       <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
         <v>2.587123155593872</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136">
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>45151</v>
+      </c>
+      <c r="B136">
         <v>6</v>
       </c>
-      <c r="B136">
+      <c r="C136">
         <v>10.9218111038208</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137">
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>45152</v>
+      </c>
+      <c r="B137">
         <v>6</v>
       </c>
-      <c r="B137">
+      <c r="C137">
         <v>2.002251863479614</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138">
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>45155</v>
+      </c>
+      <c r="B138">
         <v>9</v>
       </c>
-      <c r="B138">
+      <c r="C138">
         <v>1.392414689064026</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139">
-        <v>1</v>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>45156</v>
       </c>
       <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
         <v>1.840989351272583</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140">
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>45157</v>
+      </c>
+      <c r="B140">
         <v>3</v>
       </c>
-      <c r="B140">
+      <c r="C140">
         <v>7.05475378036499</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141">
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>45158</v>
+      </c>
+      <c r="B141">
         <v>6</v>
       </c>
-      <c r="B141">
+      <c r="C141">
         <v>7.894840240478516</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142">
-        <v>1</v>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>45159</v>
       </c>
       <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
         <v>4.756044387817383</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143">
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B143">
         <v>11</v>
       </c>
-      <c r="B143">
+      <c r="C143">
         <v>6.503261566162109</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144">
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B144">
         <v>3</v>
       </c>
-      <c r="B144">
+      <c r="C144">
         <v>3.296729326248169</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145">
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>45164</v>
+      </c>
+      <c r="B145">
         <v>9</v>
       </c>
-      <c r="B145">
+      <c r="C145">
         <v>5.042423725128174</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146">
-        <v>1</v>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>45166</v>
       </c>
       <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
         <v>7.664554119110107</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147">
-        <v>2</v>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>45167</v>
       </c>
       <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="C147">
         <v>2.938406229019165</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148">
-        <v>2</v>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>45168</v>
       </c>
       <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148">
         <v>6.355921268463135</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149">
-        <v>1</v>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>45170</v>
       </c>
       <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
         <v>4.082859516143799</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150">
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>45171</v>
+      </c>
+      <c r="B150">
         <v>7</v>
       </c>
-      <c r="B150">
+      <c r="C150">
         <v>3.773151397705078</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151">
-        <v>2</v>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>45173</v>
       </c>
       <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="C151">
         <v>1.191250443458557</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
-      <c r="A152">
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B152">
         <v>7</v>
       </c>
-      <c r="B152">
+      <c r="C152">
         <v>3.773036479949951</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
-      <c r="A153">
-        <v>1</v>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
+        <v>45178</v>
       </c>
       <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
         <v>8.107911109924316</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154">
-        <v>1</v>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
+        <v>45179</v>
       </c>
       <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
         <v>1.478458523750305</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155">
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
+        <v>45182</v>
+      </c>
+      <c r="B155">
         <v>7</v>
       </c>
-      <c r="B155">
+      <c r="C155">
         <v>1.764844059944153</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
-      <c r="A156">
-        <v>1</v>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
+        <v>45183</v>
       </c>
       <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
         <v>1.245486855506897</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
-      <c r="A157">
-        <v>2</v>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
+        <v>45184</v>
       </c>
       <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
         <v>3.68757152557373</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
-      <c r="A158">
-        <v>1</v>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
+        <v>45189</v>
       </c>
       <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
         <v>2.633978366851807</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
-      <c r="A159">
-        <v>1</v>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
+        <v>45192</v>
       </c>
       <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
         <v>2.805501937866211</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
-      <c r="A160">
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
+        <v>45194</v>
+      </c>
+      <c r="B160">
         <v>9</v>
       </c>
-      <c r="B160">
+      <c r="C160">
         <v>2.395220279693604</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="A161">
-        <v>1</v>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
+        <v>45195</v>
       </c>
       <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
         <v>2.720836400985718</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162">
-        <v>1</v>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
+        <v>45197</v>
       </c>
       <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
         <v>2.909314632415771</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
-      <c r="A163">
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B163">
         <v>5</v>
       </c>
-      <c r="B163">
+      <c r="C163">
         <v>5.631340980529785</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
-      <c r="A164">
-        <v>2</v>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
+        <v>45200</v>
       </c>
       <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="C164">
         <v>5.77966833114624</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
-      <c r="A165">
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
+        <v>45201</v>
+      </c>
+      <c r="B165">
         <v>11</v>
       </c>
-      <c r="B165">
+      <c r="C165">
         <v>8.76841926574707</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="A166">
-        <v>1</v>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
+        <v>45203</v>
       </c>
       <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
         <v>2.080405712127686</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
-      <c r="A167">
-        <v>2</v>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
+        <v>45204</v>
       </c>
       <c r="B167">
+        <v>2</v>
+      </c>
+      <c r="C167">
         <v>6.584810733795166</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
-      <c r="A168">
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
+        <v>45205</v>
+      </c>
+      <c r="B168">
         <v>8</v>
       </c>
-      <c r="B168">
+      <c r="C168">
         <v>7.996834754943848</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
-      <c r="A169">
+    <row r="169" spans="1:3">
+      <c r="A169" s="2">
+        <v>45206</v>
+      </c>
+      <c r="B169">
         <v>3</v>
       </c>
-      <c r="B169">
+      <c r="C169">
         <v>2.388376474380493</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
-      <c r="A170">
+    <row r="170" spans="1:3">
+      <c r="A170" s="2">
+        <v>45207</v>
+      </c>
+      <c r="B170">
         <v>7</v>
       </c>
-      <c r="B170">
+      <c r="C170">
         <v>7.330930233001709</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
-      <c r="A171">
+    <row r="171" spans="1:3">
+      <c r="A171" s="2">
+        <v>45212</v>
+      </c>
+      <c r="B171">
         <v>9</v>
       </c>
-      <c r="B171">
+      <c r="C171">
         <v>4.719943523406982</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
-      <c r="A172">
-        <v>1</v>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2">
+        <v>45214</v>
       </c>
       <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
         <v>3.100003242492676</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="A173">
-        <v>1</v>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2">
+        <v>45215</v>
       </c>
       <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
         <v>6.04938268661499</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="A174">
+    <row r="174" spans="1:3">
+      <c r="A174" s="2">
+        <v>45220</v>
+      </c>
+      <c r="B174">
         <v>8</v>
       </c>
-      <c r="B174">
+      <c r="C174">
         <v>9.148590087890625</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
-      <c r="A175">
+    <row r="175" spans="1:3">
+      <c r="A175" s="2">
+        <v>45223</v>
+      </c>
+      <c r="B175">
         <v>3</v>
       </c>
-      <c r="B175">
+      <c r="C175">
         <v>1.576341986656189</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
-      <c r="A176">
+    <row r="176" spans="1:3">
+      <c r="A176" s="2">
+        <v>45224</v>
+      </c>
+      <c r="B176">
         <v>3</v>
       </c>
-      <c r="B176">
+      <c r="C176">
         <v>4.777596950531006</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
-      <c r="A177">
-        <v>2</v>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2">
+        <v>45228</v>
       </c>
       <c r="B177">
+        <v>2</v>
+      </c>
+      <c r="C177">
         <v>3.745686292648315</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
-      <c r="A178">
-        <v>2</v>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2">
+        <v>45229</v>
       </c>
       <c r="B178">
+        <v>2</v>
+      </c>
+      <c r="C178">
         <v>4.907924652099609</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
-      <c r="A179">
-        <v>1</v>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2">
+        <v>45233</v>
       </c>
       <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
         <v>1.728865742683411</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
-      <c r="A180">
-        <v>1</v>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2">
+        <v>45234</v>
       </c>
       <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
         <v>2.630922317504883</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
-      <c r="A181">
-        <v>1</v>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2">
+        <v>45235</v>
       </c>
       <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
         <v>2.42952299118042</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
-      <c r="A182">
-        <v>1</v>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2">
+        <v>45236</v>
       </c>
       <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
         <v>5.234433650970459</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
-      <c r="A183">
-        <v>1</v>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2">
+        <v>45237</v>
       </c>
       <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
         <v>0.8963062167167664</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
-      <c r="A184">
+    <row r="184" spans="1:3">
+      <c r="A184" s="2">
+        <v>45239</v>
+      </c>
+      <c r="B184">
         <v>3</v>
       </c>
-      <c r="B184">
+      <c r="C184">
         <v>1.193178296089172</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
-      <c r="A185">
-        <v>1</v>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2">
+        <v>45244</v>
       </c>
       <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
         <v>2.608045101165771</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
-      <c r="A186">
-        <v>1</v>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2">
+        <v>45245</v>
       </c>
       <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
         <v>1.561367869377136</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
-      <c r="A187">
-        <v>1</v>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2">
+        <v>45246</v>
       </c>
       <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187">
         <v>3.748073816299438</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
-      <c r="A188">
+    <row r="188" spans="1:3">
+      <c r="A188" s="2">
+        <v>45249</v>
+      </c>
+      <c r="B188">
         <v>7</v>
       </c>
-      <c r="B188">
+      <c r="C188">
         <v>7.529643535614014</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
-      <c r="A189">
-        <v>1</v>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2">
+        <v>45250</v>
       </c>
       <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
         <v>3.073756217956543</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
-      <c r="A190">
+    <row r="190" spans="1:3">
+      <c r="A190" s="2">
+        <v>45251</v>
+      </c>
+      <c r="B190">
         <v>11</v>
       </c>
-      <c r="B190">
+      <c r="C190">
         <v>4.376996040344238</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
-      <c r="A191">
+    <row r="191" spans="1:3">
+      <c r="A191" s="2">
+        <v>45253</v>
+      </c>
+      <c r="B191">
         <v>7</v>
       </c>
-      <c r="B191">
+      <c r="C191">
         <v>2.016943216323853</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
-      <c r="A192">
-        <v>2</v>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2">
+        <v>45254</v>
       </c>
       <c r="B192">
+        <v>2</v>
+      </c>
+      <c r="C192">
         <v>3.756241798400879</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
-      <c r="A193">
+    <row r="193" spans="1:3">
+      <c r="A193" s="2">
+        <v>45255</v>
+      </c>
+      <c r="B193">
         <v>7</v>
       </c>
-      <c r="B193">
+      <c r="C193">
         <v>2.47291374206543</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
-      <c r="A194">
-        <v>1</v>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2">
+        <v>45257</v>
       </c>
       <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
         <v>2.248036861419678</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
-      <c r="A195">
-        <v>2</v>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2">
+        <v>45258</v>
       </c>
       <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195">
         <v>4.91349983215332</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
-      <c r="A196">
+    <row r="196" spans="1:3">
+      <c r="A196" s="2">
+        <v>45259</v>
+      </c>
+      <c r="B196">
         <v>8</v>
       </c>
-      <c r="B196">
+      <c r="C196">
         <v>4.011125564575195</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
-      <c r="A197">
+    <row r="197" spans="1:3">
+      <c r="A197" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B197">
         <v>9</v>
       </c>
-      <c r="B197">
+      <c r="C197">
         <v>2.094093322753906</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
-      <c r="A198">
-        <v>1</v>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2">
+        <v>45262</v>
       </c>
       <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198">
         <v>2.015246629714966</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
-      <c r="A199">
-        <v>1</v>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2">
+        <v>45263</v>
       </c>
       <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
         <v>5.945046901702881</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
-      <c r="A200">
+    <row r="200" spans="1:3">
+      <c r="A200" s="2">
+        <v>45264</v>
+      </c>
+      <c r="B200">
         <v>3</v>
       </c>
-      <c r="B200">
+      <c r="C200">
         <v>1.341211438179016</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
-      <c r="A201">
+    <row r="201" spans="1:3">
+      <c r="A201" s="2">
+        <v>45265</v>
+      </c>
+      <c r="B201">
         <v>9</v>
       </c>
-      <c r="B201">
+      <c r="C201">
         <v>4.993317604064941</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
-      <c r="A202">
-        <v>1</v>
+    <row r="202" spans="1:3">
+      <c r="A202" s="2">
+        <v>45266</v>
       </c>
       <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
         <v>2.508812665939331</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
-      <c r="A203">
+    <row r="203" spans="1:3">
+      <c r="A203" s="2">
+        <v>45269</v>
+      </c>
+      <c r="B203">
         <v>8</v>
       </c>
-      <c r="B203">
+      <c r="C203">
         <v>5.914002418518066</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
-      <c r="A204">
+    <row r="204" spans="1:3">
+      <c r="A204" s="2">
+        <v>45273</v>
+      </c>
+      <c r="B204">
         <v>8</v>
       </c>
-      <c r="B204">
+      <c r="C204">
         <v>1.934179186820984</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
-      <c r="A205">
-        <v>1</v>
+    <row r="205" spans="1:3">
+      <c r="A205" s="2">
+        <v>45276</v>
       </c>
       <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205">
         <v>2.85178542137146</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
-      <c r="A206">
-        <v>2</v>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2">
+        <v>45278</v>
       </c>
       <c r="B206">
+        <v>2</v>
+      </c>
+      <c r="C206">
         <v>3.059037208557129</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
-      <c r="A207">
-        <v>2</v>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2">
+        <v>45280</v>
       </c>
       <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207">
         <v>4.562087059020996</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
-      <c r="A208">
-        <v>1</v>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2">
+        <v>45282</v>
       </c>
       <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208">
         <v>5.445399284362793</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
-      <c r="A209">
+    <row r="209" spans="1:3">
+      <c r="A209" s="2">
+        <v>45286</v>
+      </c>
+      <c r="B209">
         <v>11</v>
       </c>
-      <c r="B209">
+      <c r="C209">
         <v>5.761541843414307</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
-      <c r="A210">
+    <row r="210" spans="1:3">
+      <c r="A210" s="2">
+        <v>45287</v>
+      </c>
+      <c r="B210">
         <v>8</v>
       </c>
-      <c r="B210">
+      <c r="C210">
         <v>2.613097190856934</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
-      <c r="A211">
+    <row r="211" spans="1:3">
+      <c r="A211" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B211">
         <v>3</v>
       </c>
-      <c r="B211">
+      <c r="C211">
         <v>2.517298936843872</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
-      <c r="A212">
+    <row r="212" spans="1:3">
+      <c r="A212" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B212">
         <v>6</v>
       </c>
-      <c r="B212">
+      <c r="C212">
         <v>8.013455390930176</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
-      <c r="A213">
-        <v>2</v>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2">
+        <v>45290</v>
       </c>
       <c r="B213">
+        <v>2</v>
+      </c>
+      <c r="C213">
         <v>1.73951518535614</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
-      <c r="A214">
-        <v>1</v>
+    <row r="214" spans="1:3">
+      <c r="A214" s="2">
+        <v>45293</v>
       </c>
       <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
         <v>4.071779251098633</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
-      <c r="A215">
-        <v>1</v>
+    <row r="215" spans="1:3">
+      <c r="A215" s="2">
+        <v>45294</v>
       </c>
       <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
         <v>5.227165222167969</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
-      <c r="A216">
-        <v>1</v>
+    <row r="216" spans="1:3">
+      <c r="A216" s="2">
+        <v>45295</v>
       </c>
       <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216">
         <v>3.53106164932251</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
-      <c r="A217">
+    <row r="217" spans="1:3">
+      <c r="A217" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B217">
         <v>6</v>
       </c>
-      <c r="B217">
+      <c r="C217">
         <v>3.509020566940308</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
-      <c r="A218">
+    <row r="218" spans="1:3">
+      <c r="A218" s="2">
+        <v>45298</v>
+      </c>
+      <c r="B218">
         <v>9</v>
       </c>
-      <c r="B218">
+      <c r="C218">
         <v>0.1534749716520309</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
-      <c r="A219">
-        <v>1</v>
+    <row r="219" spans="1:3">
+      <c r="A219" s="2">
+        <v>45299</v>
       </c>
       <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219">
         <v>0.8502456545829773</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
-      <c r="A220">
+    <row r="220" spans="1:3">
+      <c r="A220" s="2">
+        <v>45300</v>
+      </c>
+      <c r="B220">
         <v>5</v>
       </c>
-      <c r="B220">
+      <c r="C220">
         <v>7.50705623626709</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
-      <c r="A221">
-        <v>1</v>
+    <row r="221" spans="1:3">
+      <c r="A221" s="2">
+        <v>45301</v>
       </c>
       <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
         <v>4.511056900024414</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
-      <c r="A222">
-        <v>2</v>
+    <row r="222" spans="1:3">
+      <c r="A222" s="2">
+        <v>45302</v>
       </c>
       <c r="B222">
+        <v>2</v>
+      </c>
+      <c r="C222">
         <v>6.31944465637207</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
-      <c r="A223">
+    <row r="223" spans="1:3">
+      <c r="A223" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B223">
         <v>7</v>
       </c>
-      <c r="B223">
+      <c r="C223">
         <v>6.492883205413818</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
-      <c r="A224">
+    <row r="224" spans="1:3">
+      <c r="A224" s="2">
+        <v>45305</v>
+      </c>
+      <c r="B224">
         <v>9</v>
       </c>
-      <c r="B224">
+      <c r="C224">
         <v>2.57513165473938</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
-      <c r="A225">
-        <v>1</v>
+    <row r="225" spans="1:3">
+      <c r="A225" s="2">
+        <v>45306</v>
       </c>
       <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
         <v>3.582473993301392</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
-      <c r="A226">
+    <row r="226" spans="1:3">
+      <c r="A226" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B226">
         <v>8</v>
       </c>
-      <c r="B226">
+      <c r="C226">
         <v>9.248790740966797</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
-      <c r="A227">
-        <v>2</v>
+    <row r="227" spans="1:3">
+      <c r="A227" s="2">
+        <v>45312</v>
       </c>
       <c r="B227">
+        <v>2</v>
+      </c>
+      <c r="C227">
         <v>3.692314624786377</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
-      <c r="A228">
+    <row r="228" spans="1:3">
+      <c r="A228" s="2">
+        <v>45314</v>
+      </c>
+      <c r="B228">
         <v>9</v>
       </c>
-      <c r="B228">
+      <c r="C228">
         <v>8.801145553588867</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
-      <c r="A229">
-        <v>1</v>
+    <row r="229" spans="1:3">
+      <c r="A229" s="2">
+        <v>45316</v>
       </c>
       <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229">
         <v>4.617449283599854</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
-      <c r="A230">
-        <v>2</v>
+    <row r="230" spans="1:3">
+      <c r="A230" s="2">
+        <v>45317</v>
       </c>
       <c r="B230">
+        <v>2</v>
+      </c>
+      <c r="C230">
         <v>3.082246780395508</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
-      <c r="A231">
+    <row r="231" spans="1:3">
+      <c r="A231" s="2">
+        <v>45318</v>
+      </c>
+      <c r="B231">
         <v>5</v>
       </c>
-      <c r="B231">
+      <c r="C231">
         <v>3.059781551361084</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
-      <c r="A232">
-        <v>1</v>
+    <row r="232" spans="1:3">
+      <c r="A232" s="2">
+        <v>45319</v>
       </c>
       <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
         <v>-0.06621774286031723</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
-      <c r="A233">
-        <v>2</v>
+    <row r="233" spans="1:3">
+      <c r="A233" s="2">
+        <v>45320</v>
       </c>
       <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="C233">
         <v>2.130207777023315</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
-      <c r="A234">
-        <v>2</v>
+    <row r="234" spans="1:3">
+      <c r="A234" s="2">
+        <v>45321</v>
       </c>
       <c r="B234">
+        <v>2</v>
+      </c>
+      <c r="C234">
         <v>3.082298755645752</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
-      <c r="A235">
-        <v>2</v>
+    <row r="235" spans="1:3">
+      <c r="A235" s="2">
+        <v>45324</v>
       </c>
       <c r="B235">
+        <v>2</v>
+      </c>
+      <c r="C235">
         <v>1.86224889755249</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
-      <c r="A236">
-        <v>1</v>
+    <row r="236" spans="1:3">
+      <c r="A236" s="2">
+        <v>45326</v>
       </c>
       <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
         <v>1.732913017272949</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
-      <c r="A237">
-        <v>1</v>
+    <row r="237" spans="1:3">
+      <c r="A237" s="2">
+        <v>45327</v>
       </c>
       <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237">
         <v>2.950148344039917</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
-      <c r="A238">
-        <v>2</v>
+    <row r="238" spans="1:3">
+      <c r="A238" s="2">
+        <v>45328</v>
       </c>
       <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="C238">
         <v>3.341209650039673</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
-      <c r="A239">
+    <row r="239" spans="1:3">
+      <c r="A239" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B239">
         <v>6</v>
       </c>
-      <c r="B239">
+      <c r="C239">
         <v>4.888972282409668</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
-      <c r="A240">
-        <v>2</v>
+    <row r="240" spans="1:3">
+      <c r="A240" s="2">
+        <v>45330</v>
       </c>
       <c r="B240">
+        <v>2</v>
+      </c>
+      <c r="C240">
         <v>1.383054137229919</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
-      <c r="A241">
+    <row r="241" spans="1:3">
+      <c r="A241" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B241">
         <v>8</v>
       </c>
-      <c r="B241">
+      <c r="C241">
         <v>6.982650279998779</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
-      <c r="A242">
+    <row r="242" spans="1:3">
+      <c r="A242" s="2">
+        <v>45332</v>
+      </c>
+      <c r="B242">
         <v>7</v>
       </c>
-      <c r="B242">
+      <c r="C242">
         <v>0.7362729907035828</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
-      <c r="A243">
-        <v>2</v>
+    <row r="243" spans="1:3">
+      <c r="A243" s="2">
+        <v>45333</v>
       </c>
       <c r="B243">
+        <v>2</v>
+      </c>
+      <c r="C243">
         <v>0.2684065401554108</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
-      <c r="A244">
+    <row r="244" spans="1:3">
+      <c r="A244" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B244">
         <v>7</v>
       </c>
-      <c r="B244">
+      <c r="C244">
         <v>9.039867401123047</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
-      <c r="A245">
-        <v>1</v>
+    <row r="245" spans="1:3">
+      <c r="A245" s="2">
+        <v>45335</v>
       </c>
       <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245">
         <v>5.227229595184326</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
-      <c r="A246">
+    <row r="246" spans="1:3">
+      <c r="A246" s="2">
+        <v>45336</v>
+      </c>
+      <c r="B246">
         <v>11</v>
       </c>
-      <c r="B246">
+      <c r="C246">
         <v>4.9645094871521</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
-      <c r="A247">
+    <row r="247" spans="1:3">
+      <c r="A247" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B247">
         <v>11</v>
       </c>
-      <c r="B247">
+      <c r="C247">
         <v>2.921075344085693</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
-      <c r="A248">
-        <v>1</v>
+    <row r="248" spans="1:3">
+      <c r="A248" s="2">
+        <v>45338</v>
       </c>
       <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248">
         <v>2.216606855392456</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
-      <c r="A249">
-        <v>1</v>
+    <row r="249" spans="1:3">
+      <c r="A249" s="2">
+        <v>45339</v>
       </c>
       <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249">
         <v>4.433117866516113</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
-      <c r="A250">
-        <v>1</v>
+    <row r="250" spans="1:3">
+      <c r="A250" s="2">
+        <v>45340</v>
       </c>
       <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250">
         <v>4.551174640655518</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
-      <c r="A251">
-        <v>1</v>
+    <row r="251" spans="1:3">
+      <c r="A251" s="2">
+        <v>45341</v>
       </c>
       <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
         <v>6.054728031158447</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
-      <c r="A252">
+    <row r="252" spans="1:3">
+      <c r="A252" s="2">
+        <v>45343</v>
+      </c>
+      <c r="B252">
         <v>11</v>
       </c>
-      <c r="B252">
+      <c r="C252">
         <v>3.935623168945312</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
-      <c r="A253">
-        <v>1</v>
+    <row r="253" spans="1:3">
+      <c r="A253" s="2">
+        <v>45344</v>
       </c>
       <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253">
         <v>5.55175256729126</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
-      <c r="A254">
+    <row r="254" spans="1:3">
+      <c r="A254" s="2">
+        <v>45346</v>
+      </c>
+      <c r="B254">
         <v>7</v>
       </c>
-      <c r="B254">
+      <c r="C254">
         <v>8.693284034729004</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
-      <c r="A255">
-        <v>1</v>
+    <row r="255" spans="1:3">
+      <c r="A255" s="2">
+        <v>45347</v>
       </c>
       <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255">
         <v>3.888801336288452</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
-      <c r="A256">
+    <row r="256" spans="1:3">
+      <c r="A256" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B256">
         <v>11</v>
       </c>
-      <c r="B256">
+      <c r="C256">
         <v>3.064006567001343</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
-      <c r="A257">
-        <v>1</v>
+    <row r="257" spans="1:3">
+      <c r="A257" s="2">
+        <v>45354</v>
       </c>
       <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
         <v>5.17843770980835</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
-      <c r="A258">
-        <v>1</v>
+    <row r="258" spans="1:3">
+      <c r="A258" s="2">
+        <v>45355</v>
       </c>
       <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
         <v>8.91852855682373</v>
       </c>
     </row>
